--- a/Datasett/Overnatting.xlsx
+++ b/Datasett/Overnatting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D98B6-FEC5-4C05-8D7F-52FF57472DFF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0A78C-23D7-44ED-91A0-C11DA395185D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>58.77574580</t>
   </si>
   <si>
-    <t>Kongeparken Camping</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kongeparken Camping </t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>Kongeparken Hytteutleie</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1027,16 +1027,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1068,7 +1068,7 @@
         <v>4330</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>4335</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>4330</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1149,13 +1149,13 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1164,7 +1164,7 @@
         <v>4330</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1181,13 +1181,13 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1196,30 +1196,30 @@
         <v>4330</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>4335</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Datasett/Overnatting.xlsx
+++ b/Datasett/Overnatting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0A78C-23D7-44ED-91A0-C11DA395185D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF12C228-6ED3-4EC4-96F6-99D3247C37BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,7 +998,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasett/Overnatting.xlsx
+++ b/Datasett/Overnatting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malin\Documents\Project_Y\Datasett\Nye datasett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF12C228-6ED3-4EC4-96F6-99D3247C37BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85044F3F-A08B-480A-9EFE-E9BFA4790A68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>nord</t>
   </si>
@@ -79,9 +79,6 @@
     <t>58.68384730</t>
   </si>
   <si>
-    <t xml:space="preserve">Søya hytteutleie </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hytteutleie </t>
   </si>
   <si>
@@ -97,7 +94,7 @@
     <t>58.77574580</t>
   </si>
   <si>
-    <t xml:space="preserve">Kongeparken Camping </t>
+    <t>Kongeparken Camping</t>
   </si>
   <si>
     <t>Camping</t>
@@ -115,9 +112,6 @@
     <t>58.80619015</t>
   </si>
   <si>
-    <t xml:space="preserve">Giljastølen Camping </t>
-  </si>
-  <si>
     <t>Gatenavn</t>
   </si>
   <si>
@@ -152,6 +146,15 @@
   </si>
   <si>
     <t>Latitude</t>
+  </si>
+  <si>
+    <t>Byrkjedalstunet hotell</t>
+  </si>
+  <si>
+    <t>Giljastølen Campingplass</t>
+  </si>
+  <si>
+    <t>Søya hytteutleie</t>
   </si>
   <si>
     <t>Kongeparken Hytteutleie</t>
@@ -998,7 +1001,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1027,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1059,7 +1062,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -1068,7 +1071,7 @@
         <v>4330</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,7 +1088,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1100,7 +1103,7 @@
         <v>4335</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1117,13 +1120,13 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1132,30 +1135,30 @@
         <v>4330</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1164,30 +1167,30 @@
         <v>4330</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1196,30 +1199,30 @@
         <v>4330</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1228,7 +1231,7 @@
         <v>4335</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
